--- a/biology/Botanique/Gabrielle_van_Zuylen/Gabrielle_van_Zuylen.xlsx
+++ b/biology/Botanique/Gabrielle_van_Zuylen/Gabrielle_van_Zuylen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriëlle (Gaby) Andrée Iglesias Velayos y Taliaferro, née le (9 juillet 1933 à Perpignan (Pyrénées-Orientales) et morte le 3 juillet 2010 à Paris), baronne van Zuylen van Nyevelt van de Haar, est une paysagiste, designer et femme de lettres[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriëlle (Gaby) Andrée Iglesias Velayos y Taliaferro, née le (9 juillet 1933 à Perpignan (Pyrénées-Orientales) et morte le 3 juillet 2010 à Paris), baronne van Zuylen van Nyevelt van de Haar, est une paysagiste, designer et femme de lettres.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille du consul d'Espagne à Perpignan, elle grandit aux États-Unis et suit ses études au Radcliffe College.
 Elle épouse le baron Thierry van Zuylen van Nyevelt van de Haar (nl), petit-fils d'Étienne van Zuylen van Nyevelt et de Hélène de Rothschild, et frère de Marie-Hélène van Zuylen van Nyevelt van de Haar, dont elle divorcera.
@@ -546,11 +560,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardins privés en France (avec Anita Pereire, 1983, Prix Lange)
 Les jardins de Russell Page (avec Marina Schinz, 1991)
-Tous les jardins du monde, collection « Découvertes Gallimard / Culture et société » (no 207) (1994, nouvelle édition en 2013)[2]
+Tous les jardins du monde, collection « Découvertes Gallimard / Culture et société » (no 207) (1994, nouvelle édition en 2013)
 The Garden - Visions of Paradise, « New Horizons » series, Thames &amp; Hudson (1995)
 Paradise on Earth: The Gardens of Western Europe, « Abrams Discoveries » series, Abrams Books (1995)
 Alhambra, un paradis mauresque (1999)
